--- a/data/schengen_date.xlsx
+++ b/data/schengen_date.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\סמסטר ה\57811 - כלכלת הגירה\פרוייקט חקר\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozzyz\Documents\University\Immigration\economics-of-migration\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6650B2A9-E971-4335-90D1-9F322452468A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2F40C6-C5CF-4115-A73F-C7CDF34FAB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{CF4835BD-67C5-48AF-B4DD-D6D5412A2F75}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="11260" xr2:uid="{CF4835BD-67C5-48AF-B4DD-D6D5412A2F75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>CTR</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>BE</t>
   </si>
   <si>
@@ -338,7 +335,10 @@
     <t>Azerbaijan</t>
   </si>
   <si>
-    <t>Schengen Date</t>
+    <t>Schengen_Date</t>
+  </si>
+  <si>
+    <t>geo</t>
   </si>
 </sst>
 </file>
@@ -346,7 +346,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -447,13 +447,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -462,7 +462,21 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FFB0B0B0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFB0B0B0"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -498,20 +512,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FFB0B0B0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FFB0B0B0"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -526,15 +526,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9297D0D-473D-46B6-BE12-18ABD077CB71}" name="Table1" displayName="Table1" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2" tableBorderDxfId="3" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9297D0D-473D-46B6-BE12-18ABD077CB71}" name="Table1" displayName="Table1" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:C1048576" xr:uid="{D9297D0D-473D-46B6-BE12-18ABD077CB71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C50">
-    <sortCondition ref="B1:B1048576"/>
+    <sortCondition ref="C1:C1048576"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{48556FEF-2BC8-4C41-810C-6B99C03B3FB9}" name="CTR"/>
-    <tableColumn id="2" xr3:uid="{DA658B77-43C7-46B8-89F1-10912BF48553}" name="Country"/>
-    <tableColumn id="3" xr3:uid="{D082FE9D-FE53-4445-A592-3902E0DCDCB4}" name="Schengen Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{DA658B77-43C7-46B8-89F1-10912BF48553}" name="geo"/>
+    <tableColumn id="3" xr3:uid="{D082FE9D-FE53-4445-A592-3902E0DCDCB4}" name="Schengen_Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -859,523 +859,521 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCC7503-2BB8-4620-9243-D1C545301082}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>34784</v>
+      </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4">
+        <v>34784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4">
-        <v>35765</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>34784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4">
+        <v>34784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4">
+        <v>34784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4">
         <v>34784</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4">
+        <v>34784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>35729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C10" s="4">
-        <v>44927</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>35765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>36975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C13" s="4">
         <v>36975</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C14" s="4">
-        <v>39437</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>36975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C15" s="4">
         <v>36975</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C16" s="4">
-        <v>34784</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4">
+        <v>39437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C18" s="4">
-        <v>34784</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4">
-        <v>36526</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C20" s="4">
         <v>39437</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="4">
+        <v>39437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="4">
+        <v>39437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="4">
+        <v>39437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="4">
+        <v>39437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="4">
+        <v>39794</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="4">
-        <v>36975</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="4">
-        <v>35729</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="4">
-        <v>39437</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C26" s="4">
         <v>40896</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C27" s="4">
-        <v>39437</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C28" s="4">
-        <v>34784</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C29" s="4">
-        <v>39437</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="4">
-        <v>34784</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="4">
-        <v>36975</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="4">
-        <v>39437</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="4">
-        <v>34784</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="4">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="4">
-        <v>39437</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="4">
-        <v>39437</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="4">
-        <v>34784</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="4">
-        <v>36975</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="4">
-        <v>39794</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="B49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C50" s="4"/>
     </row>
